--- a/Сессия 1/user_import.xlsx
+++ b/Сессия 1/user_import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT_6-master\Сессия 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT6-_Gaidarzhi_Vadim_ISP431\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055" tabRatio="643" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="217">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>idNameClient</t>
+  </si>
+  <si>
+    <t>idProduct</t>
+  </si>
+  <si>
+    <t>Составзаказа</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -795,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,7 +829,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1170,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1415,7 +1424,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A9"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1511,7 +1520,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1548,7 +1557,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1684,7 +1693,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1731,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1788,7 +1797,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1841,12 +1850,12 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="19"/>
+    <col min="1" max="1" width="6.75" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="17" hidden="1" customWidth="1"/>
     <col min="3" max="5" width="22.125" style="17" customWidth="1"/>
     <col min="6" max="7" width="21.75" style="17" customWidth="1"/>
@@ -3328,429 +3337,622 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="3" width="22.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="11.25" style="19" customWidth="1"/>
+    <col min="4" max="5" width="22.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LOOKUP(D2,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <f>LOOKUP(D3,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <f>LOOKUP(D4,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <f>LOOKUP(D5,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <f>LOOKUP(D6,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <f>LOOKUP(D7,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <f>LOOKUP(D8,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <f>LOOKUP(D9,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <f>LOOKUP(D10,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <f>LOOKUP(D11,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <f>LOOKUP(D12,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <f>LOOKUP(D13,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <f>LOOKUP(D14,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <f>LOOKUP(D15,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <f>LOOKUP(D16,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <f>LOOKUP(D17,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <f>LOOKUP(D18,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <f>LOOKUP(D19,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <f>LOOKUP(D20,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <f>LOOKUP(D21,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3759,7 +3961,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3804,792 +4006,900 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="25.625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
         <v>344288</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2">
-        <f>LOOKUP(E2,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E2">
+        <f>LOOKUP(F2,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>170</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
         <v>614164</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3">
-        <f>LOOKUP(E3,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E3">
+        <f>LOOKUP(F3,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>168</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
         <v>394242</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4">
-        <f>LOOKUP(E4,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E4">
+        <f>LOOKUP(F4,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>171</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
         <v>660540</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5">
-        <f>LOOKUP(E5,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E5">
+        <f>LOOKUP(F5,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>172</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
         <v>125837</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="D6">
-        <f>LOOKUP(E6,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E6">
+        <f>LOOKUP(F6,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>173</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
         <v>125703</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7">
-        <f>LOOKUP(E7,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E7">
+        <f>LOOKUP(F7,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>174</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
         <v>625283</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="D8">
-        <f>LOOKUP(E8,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E8">
+        <f>LOOKUP(F8,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>175</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
         <v>614611</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="D9">
-        <f>LOOKUP(E9,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E9">
+        <f>LOOKUP(F9,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>176</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
         <v>454311</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10">
-        <f>LOOKUP(E10,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E10">
+        <f>LOOKUP(F10,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>177</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
         <v>660007</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11">
-        <f>LOOKUP(E11,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E11">
+        <f>LOOKUP(F11,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>14</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>178</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10">
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
         <v>603036</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="D12">
-        <f>LOOKUP(E12,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E12">
+        <f>LOOKUP(F12,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>179</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
         <v>450983</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
-        <f>LOOKUP(E13,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E13">
+        <f>LOOKUP(F13,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>180</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10">
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
         <v>394782</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="D14">
-        <f>LOOKUP(E14,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E14">
+        <f>LOOKUP(F14,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>170</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10">
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
         <v>603002</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
-        <f>LOOKUP(E15,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E15">
+        <f>LOOKUP(F15,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>181</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
         <v>450558</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
-        <f>LOOKUP(E16,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E16">
+        <f>LOOKUP(F16,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>182</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
         <v>394060</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17">
-        <f>LOOKUP(E17,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E17">
+        <f>LOOKUP(F17,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>183</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
         <v>410661</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18">
-        <f>LOOKUP(E18,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E18">
+        <f>LOOKUP(F18,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>184</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
         <v>625590</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="D19">
-        <f>LOOKUP(E19,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E19">
+        <f>LOOKUP(F19,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>171</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
         <v>625683</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20">
-        <f>LOOKUP(E20,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <f>LOOKUP(F20,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>185</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10">
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
         <v>400562</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21">
-        <f>LOOKUP(E21,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E21">
+        <f>LOOKUP(F21,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>186</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10">
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
         <v>614510</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="D22">
-        <f>LOOKUP(E22,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E22">
+        <f>LOOKUP(F22,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>187</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10">
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
         <v>410542</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="D23">
-        <f>LOOKUP(E23,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E23">
+        <f>LOOKUP(F23,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>20</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10">
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
         <v>620839</v>
       </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="D24">
-        <f>LOOKUP(E24,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E24">
+        <f>LOOKUP(F24,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>189</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10">
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
         <v>443890</v>
       </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="D25">
-        <f>LOOKUP(E25,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E25">
+        <f>LOOKUP(F25,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>171</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
         <v>603379</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="D26">
-        <f>LOOKUP(E26,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E26">
+        <f>LOOKUP(F26,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>23</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>190</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10">
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
         <v>603721</v>
       </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="D27">
-        <f>LOOKUP(E27,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E27">
+        <f>LOOKUP(F27,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>191</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10">
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
         <v>410172</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>51</v>
       </c>
-      <c r="D28">
-        <f>LOOKUP(E28,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E28">
+        <f>LOOKUP(F28,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>21</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>192</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
         <v>420151</v>
       </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="D29">
-        <f>LOOKUP(E29,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E29">
+        <f>LOOKUP(F29,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>193</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10">
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
         <v>125061</v>
       </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="D30">
-        <f>LOOKUP(E30,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E30">
+        <f>LOOKUP(F30,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>194</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10">
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
         <v>630370</v>
       </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="D31">
-        <f>LOOKUP(E31,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E31">
+        <f>LOOKUP(F31,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>30</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>173</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10">
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
         <v>614753</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>51</v>
       </c>
-      <c r="D32">
-        <f>LOOKUP(E32,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E32">
+        <f>LOOKUP(F32,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>18</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>195</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10">
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
         <v>426030</v>
       </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="D33">
-        <f>LOOKUP(E33,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E33">
+        <f>LOOKUP(F33,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>187</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10">
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
         <v>450375</v>
       </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="D34">
-        <f>LOOKUP(E34,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E34">
+        <f>LOOKUP(F34,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>5</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>162</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10">
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
         <v>625560</v>
       </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35">
-        <f>LOOKUP(E35,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E35">
+        <f>LOOKUP(F35,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>12</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>196</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10">
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
         <v>630201</v>
       </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>51</v>
       </c>
-      <c r="D36">
-        <f>LOOKUP(E36,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E36">
+        <f>LOOKUP(F36,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>7</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>180</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10">
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
         <v>190949</v>
       </c>
-      <c r="B37" s="10">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>51</v>
       </c>
-      <c r="D37">
-        <f>LOOKUP(E37,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
+      <c r="E37">
+        <f>LOOKUP(F37,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>9</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>169</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>26</v>
       </c>
     </row>
@@ -4603,7 +4913,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4640,7 +4950,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4906,1795 +5216,1888 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="A2" sqref="A2:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="16.75" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="21.75" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="21.25" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="11" width="23.25" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="35" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="4" max="4" width="16.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="21.75" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="21.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="23.25" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.25" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.5">
-      <c r="A2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="5">
-        <f>LOOKUP(C2,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+    <row r="2" spans="1:19" ht="31.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LOOKUP(D2,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="5">
+        <v>400</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <f>LOOKUP(J2,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="5">
+        <f>LOOKUP(L2,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="5">
+        <f>LOOKUP(N2,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="5">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="31.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5">
+        <f>LOOKUP(D3,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5">
+        <v>600</v>
+      </c>
+      <c r="H3" s="5">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
+        <f>LOOKUP(J3,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="5">
+        <f>LOOKUP(L3,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="5">
+        <f>LOOKUP(N3,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="31.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <f>LOOKUP(D4,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5">
+        <v>600</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <f>LOOKUP(J4,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5">
+        <f>LOOKUP(L4,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="5">
+        <f>LOOKUP(N4,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="47.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5">
+        <f>LOOKUP(D5,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <f>LOOKUP(J5,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="5">
+        <f>LOOKUP(L5,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="5">
+        <f>LOOKUP(N5,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="31.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="5">
+        <f>LOOKUP(D6,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="5">
+        <v>199</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <f>LOOKUP(J6,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="5">
+        <f>LOOKUP(L6,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="5">
+        <f>LOOKUP(N6,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="5">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="31.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="5">
+        <f>LOOKUP(D7,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5">
-        <v>123</v>
-      </c>
-      <c r="G2" s="5">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5">
-        <f>LOOKUP(I2,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="5">
-        <f>LOOKUP(K2,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5">
-        <f>LOOKUP(M2,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+      <c r="G7" s="5">
+        <v>170</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <f>LOOKUP(J7,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="5">
+        <f>LOOKUP(L7,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="L7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="5">
+        <f>LOOKUP(N7,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="O2" s="5">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="31.5">
-      <c r="A3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="5">
-        <f>LOOKUP(C3,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5">
-        <v>149</v>
-      </c>
-      <c r="G3" s="5">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5">
-        <f>LOOKUP(I3,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="5">
-        <f>LOOKUP(K3,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="5">
-        <f>LOOKUP(M3,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="31.5">
-      <c r="A4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="5">
-        <f>LOOKUP(C4,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <f>LOOKUP(I4,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="5">
-        <f>LOOKUP(K4,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="5">
-        <f>LOOKUP(M4,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3</v>
-      </c>
-      <c r="O4" s="5">
-        <v>15</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="31.5">
-      <c r="A5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="5">
-        <f>LOOKUP(C5,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="5">
-        <v>86</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <f>LOOKUP(I5,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="5">
-        <f>LOOKUP(K5,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="5">
-        <f>LOOKUP(M5,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>17</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="31.5">
-      <c r="A6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="5">
-        <f>LOOKUP(C6,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="5">
-        <v>166</v>
-      </c>
-      <c r="G6" s="5">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5">
-        <f>LOOKUP(I6,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="5">
-        <f>LOOKUP(K6,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="5">
-        <f>LOOKUP(M6,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5">
-        <v>18</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="31.5">
-      <c r="A7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="5">
-        <f>LOOKUP(C7,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1700</v>
-      </c>
-      <c r="G7" s="5">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5">
-        <f>LOOKUP(I7,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="5">
-        <f>LOOKUP(K7,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="5">
-        <f>LOOKUP(M7,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
       </c>
       <c r="O7" s="5">
         <v>5</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>130</v>
+      <c r="P7" s="5">
+        <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="31.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5">
+        <f>LOOKUP(D8,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="5">
+        <v>140</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5">
+        <f>LOOKUP(J8,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="5">
+        <f>LOOKUP(L8,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="5">
+        <f>LOOKUP(N8,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="31.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="5">
+        <f>LOOKUP(D9,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5">
+        <f>LOOKUP(J9,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="5">
+        <f>LOOKUP(L9,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="5">
+        <f>LOOKUP(N9,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="31.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="5">
+        <f>LOOKUP(D10,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5">
+        <v>166</v>
+      </c>
+      <c r="H10" s="5">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5">
+        <f>LOOKUP(J10,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="5">
+        <f>LOOKUP(L10,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="5">
+        <f>LOOKUP(N10,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="31.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="5">
+        <f>LOOKUP(D11,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1200</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f>LOOKUP(J11,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="5">
+        <f>LOOKUP(L11,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="5">
+        <f>LOOKUP(N11,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="31.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="5">
-        <f>LOOKUP(C8,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+      <c r="C12" s="5">
+        <f>LOOKUP(D12,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G12" s="5">
         <v>300</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
-        <f>LOOKUP(I8,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+      <c r="I12" s="5">
+        <f>LOOKUP(J12,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="5">
-        <f>LOOKUP(K8,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+      <c r="K12" s="5">
+        <f>LOOKUP(L12,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="5">
-        <f>LOOKUP(M8,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+      <c r="M12" s="5">
+        <f>LOOKUP(N12,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O12" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P12" s="5">
         <v>19</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="31.5">
-      <c r="A9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="5">
-        <f>LOOKUP(C9,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="13" spans="1:19" ht="31.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="5">
+        <f>LOOKUP(D13,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5">
+        <v>149</v>
+      </c>
+      <c r="H13" s="5">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5">
+        <f>LOOKUP(J13,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="5">
+        <f>LOOKUP(L13,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="5">
+        <f>LOOKUP(N13,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="47.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5">
+        <f>LOOKUP(D14,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2190</v>
+      </c>
+      <c r="H14" s="5">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5">
+        <f>LOOKUP(J14,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="5">
+        <f>LOOKUP(L14,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="5">
+        <f>LOOKUP(N14,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="31.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="5">
+        <f>LOOKUP(D15,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5">
-        <v>199</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="G15" s="5">
+        <v>510</v>
+      </c>
+      <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="5">
-        <f>LOOKUP(I9,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+      <c r="I15" s="5">
+        <f>LOOKUP(J15,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="5">
+        <f>LOOKUP(L15,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="5">
+        <f>LOOKUP(N15,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="31.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="5">
+        <f>LOOKUP(D16,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="5">
-        <f>LOOKUP(K9,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5">
+        <v>385</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <f>LOOKUP(J16,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="5">
+        <f>LOOKUP(L16,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="5">
-        <f>LOOKUP(M9,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+      <c r="M16" s="5">
+        <f>LOOKUP(N16,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="5">
         <v>2</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="P16" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="31.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="5">
+        <f>LOOKUP(D17,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5">
+        <v>300</v>
+      </c>
+      <c r="H17" s="5">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5">
+        <f>LOOKUP(J17,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="5">
+        <f>LOOKUP(L17,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="5">
+        <f>LOOKUP(N17,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="5">
+        <v>2</v>
+      </c>
+      <c r="P17" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="31.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5">
+        <f>LOOKUP(D18,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="5">
+        <v>177</v>
+      </c>
+      <c r="H18" s="5">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5">
+        <f>LOOKUP(J18,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="5">
+        <f>LOOKUP(L18,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="5">
+        <f>LOOKUP(N18,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3</v>
+      </c>
+      <c r="P18" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="31.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5">
+        <f>LOOKUP(D19,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="5">
+        <v>292</v>
+      </c>
+      <c r="H19" s="5">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5">
+        <f>LOOKUP(J19,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="5">
+        <f>LOOKUP(L19,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="5">
+        <f>LOOKUP(N19,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="31.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5">
+        <f>LOOKUP(D20,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <f>LOOKUP(J20,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="5">
+        <f>LOOKUP(L20,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="5">
+        <f>LOOKUP(N20,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="5">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="31.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5">
+        <f>LOOKUP(D21,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="5">
+        <v>800</v>
+      </c>
+      <c r="H21" s="5">
+        <v>25</v>
+      </c>
+      <c r="I21" s="5">
+        <f>LOOKUP(J21,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="5">
+        <f>LOOKUP(L21,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="5">
+        <f>LOOKUP(N21,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2</v>
+      </c>
+      <c r="P21" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="31.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5">
+        <f>LOOKUP(D22,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="5">
+        <v>50</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <f>LOOKUP(J22,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="5">
+        <f>LOOKUP(L22,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="5">
+        <f>LOOKUP(N22,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="5">
+        <v>4</v>
+      </c>
+      <c r="P22" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="31.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5">
+        <f>LOOKUP(D23,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="5">
+        <v>510</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
+        <f>LOOKUP(J23,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="5">
+        <f>LOOKUP(L23,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="5">
+        <f>LOOKUP(N23,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="31.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="5">
+        <f>LOOKUP(D24,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="5">
+        <v>234</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5">
+        <f>LOOKUP(J24,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="5">
+        <f>LOOKUP(L24,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="5">
+        <f>LOOKUP(N24,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="5">
+        <v>3</v>
+      </c>
+      <c r="P24" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5">
+        <f>LOOKUP(D25,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="5">
+        <v>280</v>
+      </c>
+      <c r="H25" s="5">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5">
+        <f>LOOKUP(J25,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="5">
+        <f>LOOKUP(L25,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="5">
+        <f>LOOKUP(N25,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5</v>
-      </c>
-      <c r="O9" s="5">
-        <v>7</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="31.5">
-      <c r="A10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="5">
-        <f>LOOKUP(C10,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="5">
-        <v>234</v>
-      </c>
-      <c r="G10" s="5">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5">
-        <f>LOOKUP(I10,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="5">
-        <f>LOOKUP(K10,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="5">
-        <f>LOOKUP(M10,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="5">
-        <v>3</v>
-      </c>
-      <c r="O10" s="5">
-        <v>17</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="31.5">
-      <c r="A11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="5">
-        <f>LOOKUP(C11,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="5">
-        <v>170</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <f>LOOKUP(I11,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="5">
-        <f>LOOKUP(K11,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="5">
-        <f>LOOKUP(M11,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="5">
-        <v>5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="31.5">
-      <c r="A12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="5">
-        <f>LOOKUP(C12,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="5">
-        <v>600</v>
-      </c>
-      <c r="G12" s="5">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5">
-        <f>LOOKUP(I12,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="5">
-        <f>LOOKUP(K12,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="5">
-        <f>LOOKUP(M12,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="31.5">
-      <c r="A13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="5">
-        <f>LOOKUP(C13,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="5">
-        <v>300</v>
-      </c>
-      <c r="G13" s="5">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5">
-        <f>LOOKUP(I13,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="5">
-        <f>LOOKUP(K13,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="5">
-        <f>LOOKUP(M13,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="5">
-        <v>2</v>
-      </c>
-      <c r="O13" s="5">
-        <v>15</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="47.25">
-      <c r="A14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="5">
-        <f>LOOKUP(C14,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4100</v>
-      </c>
-      <c r="G14" s="5">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5">
-        <f>LOOKUP(I14,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="5">
-        <f>LOOKUP(K14,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="5">
-        <f>LOOKUP(M14,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="5">
-        <v>4</v>
-      </c>
-      <c r="O14" s="5">
-        <v>9</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="31.5">
-      <c r="A15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="5">
-        <f>LOOKUP(C15,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="5">
-        <v>385</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <f>LOOKUP(I15,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="5">
-        <f>LOOKUP(K15,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="5">
-        <f>LOOKUP(M15,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="5">
-        <v>2</v>
-      </c>
-      <c r="O15" s="5">
-        <v>17</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="5">
-        <f>LOOKUP(C16,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="5">
-        <v>280</v>
-      </c>
-      <c r="G16" s="5">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5">
-        <f>LOOKUP(I16,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="5">
-        <f>LOOKUP(K16,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="5">
-        <f>LOOKUP(M16,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="5">
-        <v>3</v>
-      </c>
-      <c r="O16" s="5">
-        <v>8</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="31.5">
-      <c r="A17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="5">
-        <f>LOOKUP(C17,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="5">
-        <v>25</v>
-      </c>
-      <c r="H17" s="5">
-        <f>LOOKUP(I17,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="5">
-        <f>LOOKUP(K17,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="5">
-        <f>LOOKUP(M17,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="5">
-        <v>4</v>
-      </c>
-      <c r="O17" s="5">
-        <v>9</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="31.5">
-      <c r="A18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="5">
-        <f>LOOKUP(C18,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="5">
-        <v>510</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <f>LOOKUP(I18,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="5">
-        <f>LOOKUP(K18,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="5">
-        <f>LOOKUP(M18,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="5">
-        <v>2</v>
-      </c>
-      <c r="O18" s="5">
-        <v>17</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="31.5">
-      <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="5">
-        <f>LOOKUP(C19,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="5">
-        <v>510</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <f>LOOKUP(I19,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="5">
-        <f>LOOKUP(K19,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="5">
-        <f>LOOKUP(M19,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="5">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5">
-        <v>17</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="47.25">
-      <c r="A20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5">
-        <f>LOOKUP(C20,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2190</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
-        <f>LOOKUP(I20,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="5">
-        <f>LOOKUP(K20,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="5">
-        <f>LOOKUP(M20,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="5">
-        <v>4</v>
-      </c>
-      <c r="O20" s="5">
-        <v>7</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="31.5">
-      <c r="A21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="5">
-        <f>LOOKUP(C21,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="5">
-        <v>177</v>
-      </c>
-      <c r="G21" s="5">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5">
-        <f>LOOKUP(I21,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="5">
-        <f>LOOKUP(K21,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="5">
-        <f>LOOKUP(M21,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="5">
-        <v>3</v>
-      </c>
-      <c r="O21" s="5">
-        <v>15</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="31.5">
-      <c r="A22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="5">
-        <f>LOOKUP(C22,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="5">
-        <v>100</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <f>LOOKUP(I22,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="5">
-        <f>LOOKUP(K22,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="5">
-        <f>LOOKUP(M22,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="5">
-        <v>4</v>
-      </c>
-      <c r="O22" s="5">
-        <v>21</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.5">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="5">
-        <f>LOOKUP(C23,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5">
-        <v>640</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <f>LOOKUP(I23,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="5">
-        <f>LOOKUP(K23,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="5">
-        <f>LOOKUP(M23,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="5">
-        <v>5</v>
-      </c>
-      <c r="O23" s="5">
-        <v>4</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="31.5">
-      <c r="A24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="5">
-        <f>LOOKUP(C24,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="5">
-        <v>800</v>
-      </c>
-      <c r="G24" s="5">
-        <v>25</v>
-      </c>
-      <c r="H24" s="5">
-        <f>LOOKUP(I24,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>13</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="5">
-        <f>LOOKUP(K24,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="5">
-        <f>LOOKUP(M24,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="5">
-        <v>2</v>
-      </c>
-      <c r="O24" s="5">
-        <v>17</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31.5">
-      <c r="A25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="5">
-        <f>LOOKUP(C25,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3500</v>
-      </c>
-      <c r="G25" s="5">
-        <v>30</v>
-      </c>
-      <c r="H25" s="5">
-        <f>LOOKUP(I25,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="5">
-        <f>LOOKUP(K25,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="5">
-        <f>LOOKUP(M25,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="5">
-        <v>5</v>
       </c>
       <c r="O25" s="5">
         <v>3</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>78</v>
+      <c r="P25" s="5">
+        <v>8</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
-      <c r="A26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="5">
-        <f>LOOKUP(C26,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+    <row r="26" spans="1:19" ht="31.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="5">
+        <f>LOOKUP(D26,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1700</v>
+      </c>
+      <c r="H26" s="5">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5">
+        <f>LOOKUP(J26,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="5">
+        <f>LOOKUP(L26,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="5">
+        <f>LOOKUP(N26,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2</v>
+      </c>
+      <c r="P26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="31.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5">
+        <f>LOOKUP(D27,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="5">
-        <v>400</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="G27" s="5">
+        <v>1700</v>
+      </c>
+      <c r="H27" s="5">
+        <v>25</v>
+      </c>
+      <c r="I27" s="5">
+        <f>LOOKUP(J27,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="5">
+        <f>LOOKUP(L27,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="5">
+        <f>LOOKUP(N27,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="5">
+        <v>4</v>
+      </c>
+      <c r="P27" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="31.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="5">
+        <f>LOOKUP(D28,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="5">
+        <v>640</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5">
+        <f>LOOKUP(J28,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="5">
+        <f>LOOKUP(L28,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="5">
+        <f>LOOKUP(N28,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="5">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="31.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5">
+        <f>LOOKUP(D29,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="5">
+        <v>600</v>
+      </c>
+      <c r="H29" s="5">
         <v>15</v>
       </c>
-      <c r="H26" s="5">
-        <f>LOOKUP(I26,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="5">
-        <f>LOOKUP(K26,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+      <c r="I29" s="5">
+        <f>LOOKUP(J29,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="5">
+        <f>LOOKUP(L29,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="5">
+        <f>LOOKUP(N29,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="5">
+        <v>5</v>
+      </c>
+      <c r="P29" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="17"/>
+    </row>
+    <row r="30" spans="1:19" ht="31.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="5">
+        <f>LOOKUP(D30,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="5">
+        <v>86</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5">
+        <f>LOOKUP(J30,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="5">
+        <f>LOOKUP(L30,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="5">
+        <f>LOOKUP(N30,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="5">
+        <v>4</v>
+      </c>
+      <c r="P30" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="13" customFormat="1" ht="31.5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="5">
+        <f>LOOKUP(D31,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="5">
+        <v>123</v>
+      </c>
+      <c r="H31" s="5">
+        <v>30</v>
+      </c>
+      <c r="I31" s="5">
+        <f>LOOKUP(J31,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="5">
+        <f>LOOKUP(L31,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="5">
+        <f>LOOKUP(N31,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="5">
-        <f>LOOKUP(M26,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="5">
-        <v>4</v>
-      </c>
-      <c r="O26" s="5">
-        <v>5</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="31.5">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="5">
-        <f>LOOKUP(C27,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="5">
-        <v>292</v>
-      </c>
-      <c r="G27" s="5">
-        <v>25</v>
-      </c>
-      <c r="H27" s="5">
-        <f>LOOKUP(I27,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="5">
-        <f>LOOKUP(K27,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="5">
-        <f>LOOKUP(M27,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="N31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="5">
         <v>3</v>
       </c>
-      <c r="O27" s="5">
-        <v>13</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="31.5">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5">
-        <f>LOOKUP(C28,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+      <c r="P31" s="5">
         <v>6</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="5">
-        <v>600</v>
-      </c>
-      <c r="G28" s="5">
-        <v>15</v>
-      </c>
-      <c r="H28" s="5">
-        <f>LOOKUP(I28,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>11</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="5">
-        <f>LOOKUP(K28,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="5">
-        <f>LOOKUP(M28,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="5">
-        <v>2</v>
-      </c>
-      <c r="O28" s="5">
-        <v>16</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="31.5">
-      <c r="A29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="5">
-        <f>LOOKUP(C29,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="5">
-        <v>140</v>
-      </c>
-      <c r="G29" s="5">
-        <v>20</v>
-      </c>
-      <c r="H29" s="5">
-        <f>LOOKUP(I29,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="5">
-        <f>LOOKUP(K29,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="5">
-        <f>LOOKUP(M29,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="5">
-        <v>3</v>
-      </c>
-      <c r="O29" s="5">
-        <v>19</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="31.5">
-      <c r="A30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="5">
-        <f>LOOKUP(C30,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="5">
-        <v>50</v>
-      </c>
-      <c r="G30" s="5">
-        <v>5</v>
-      </c>
-      <c r="H30" s="5">
-        <f>LOOKUP(I30,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="5">
-        <f>LOOKUP(K30,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="5">
-        <f>LOOKUP(M30,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" s="5">
-        <v>4</v>
-      </c>
-      <c r="O30" s="5">
-        <v>6</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="13" customFormat="1" ht="31.5">
-      <c r="A31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="5">
-        <f>LOOKUP(C31,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="5">
-        <v>600</v>
-      </c>
-      <c r="G31" s="5">
-        <v>15</v>
-      </c>
-      <c r="H31" s="5">
-        <f>LOOKUP(I31,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
-        <v>3</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="5">
-        <f>LOOKUP(K31,Supplier!$B$2:$B$3,Supplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="5">
-        <f>LOOKUP(M31,Category!$B$2:$B$4,Category!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N31" s="5">
-        <v>5</v>
-      </c>
-      <c r="O31" s="5">
-        <v>15</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="Q31" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -6711,426 +7114,12 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="R32" s="12"/>
     </row>
   </sheetData>
+  <sortState ref="A2:S54">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
